--- a/tests/resources/PMT.xlsx
+++ b/tests/resources/PMT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bradb\Documents\Python\koala_xlcalculator\tests\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9FC475-DCE0-44D7-B5DE-F4675ADAE4F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63A4578-FDCB-4A4C-B93B-45937516C1DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="158" windowWidth="21480" windowHeight="12742" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="158" windowWidth="21480" windowHeight="12742" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,17 +32,20 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,17 +71,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -359,7 +365,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -368,21 +374,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="3">
+      <c r="A1" s="2">
         <f>PMT(A2/12,A3,A4)</f>
         <v>-1037.0320893591522</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B1" s="2">
         <f>PMT(A2/12,A3,A4)</f>
         <v>-1037.0320893591522</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="2">
         <f>PMT(A12/12,A13*12, 0,A14)</f>
         <v>-129.08116086799092</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>0.08</v>
       </c>
     </row>
@@ -392,12 +398,12 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>10000</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="1">
+      <c r="A12" s="4">
         <v>0.06</v>
       </c>
     </row>
@@ -407,7 +413,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>50000</v>
       </c>
     </row>
